--- a/biology/Médecine/Hétérochromie/Hétérochromie.xlsx
+++ b/biology/Médecine/Hétérochromie/Hétérochromie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rochromie</t>
+          <t>Hétérochromie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérochromie est une différence ou variation de couleur entre l'iris des deux yeux (heterochromia iridis) ou entre des parties d'un même iris (heterochromia iridum). Plusieurs types d'hétérochromie existent comme l'hétérochromie centrale, où l'iris central a une couleur différente du reste. Elle peut n'être localisée que sur un des deux yeux. 
 Elle a souvent une origine génétique, le plus souvent bénigne, ou bien en tant qu'élément accompagnateur de certains syndromes (tels que celui d'un signe dans le syndrome de Waardenburg) mais peut résulter aussi de diverses pathologies dont des tumeurs ou blessures à l'œil.
@@ -490,8 +502,8 @@
 l’hétérochromie partielle/iridis/unilatérale (heterochromia iridum) : présence de différentes couleurs au sein d’un même iris, comme un œil vert avec une zone de couleur légèrement plus claire/foncée. Cette hétérochromie est plus fréquente et on distingue :
 l'hétérochromie partielle centrale: iris est entouré d’un "anneau" de couleur distincte, comme le blanc. (les différences de couleur à l'intérieur du même œil, si les contours en sont bien marqués, sont désignées par le terme de « dragon ».[réf. nécessaire])
 l'hétérochromie partielle sectorielle: l'iris présente une "tache" non circulaire de couleur distincte.
-Le terme « pers » est parfois utilisé pour parler des yeux vairons, or il désigne proprement une couleur proche du bleu. Le terme dans sa globalité vient du Grec ancien ἕτερος, héteros "diffèrent" et χρῶμα, chrôma "couleur"[1]. La confusion vient de ce que cette couleur proche du bleu est intermédiaire avec le vert, comme certains yeux présentant une hétérochromie unilatérale présentent les deux couleurs, séparées.
-Le terme hétérochromie, même s'il est le plus souvent utilisé pour décrire les différences de couleur des yeux en premier lieu dans l'esprit collectif, est également parfois et plus rarement appliqué concernant les variations de couleur des cheveux ou même de la peau[2].
+Le terme « pers » est parfois utilisé pour parler des yeux vairons, or il désigne proprement une couleur proche du bleu. Le terme dans sa globalité vient du Grec ancien ἕτερος, héteros "diffèrent" et χρῶμα, chrôma "couleur". La confusion vient de ce que cette couleur proche du bleu est intermédiaire avec le vert, comme certains yeux présentant une hétérochromie unilatérale présentent les deux couleurs, séparées.
+Le terme hétérochromie, même s'il est le plus souvent utilisé pour décrire les différences de couleur des yeux en premier lieu dans l'esprit collectif, est également parfois et plus rarement appliqué concernant les variations de couleur des cheveux ou même de la peau.
 </t>
         </is>
       </c>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rochromie</t>
+          <t>Hétérochromie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,10 +532,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La couleur des yeux, notamment celle de l'iris, est conçue en grande partie par la concentration et la répartition de la mélanine. Bien que ce processus lui-même ne soit pas encore entièrement compris, on sait cependant que la couleur héréditaire des yeux est déterminée par plusieurs gènes. Des facteurs environnementaux ou acquis peuvent cependant aussi altérer ces dit traits héréditaires[3]. 
-La couleur de l'iris est très variable notamment chez les mammifères, y compris humains, mais seuls deux pigments sont présents, l'eumélanine et la phéomélanine. La concentration globale de ces pigments, le rapport entre eux, la variation de la distribution des pigments dans les couches du stroma de l'iris et les effets de la diffusion de la lumière sur l'œil jouent tous un rôle important dans la conception de la couleur des yeux[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couleur des yeux, notamment celle de l'iris, est conçue en grande partie par la concentration et la répartition de la mélanine. Bien que ce processus lui-même ne soit pas encore entièrement compris, on sait cependant que la couleur héréditaire des yeux est déterminée par plusieurs gènes. Des facteurs environnementaux ou acquis peuvent cependant aussi altérer ces dit traits héréditaires. 
+La couleur de l'iris est très variable notamment chez les mammifères, y compris humains, mais seuls deux pigments sont présents, l'eumélanine et la phéomélanine. La concentration globale de ces pigments, le rapport entre eux, la variation de la distribution des pigments dans les couches du stroma de l'iris et les effets de la diffusion de la lumière sur l'œil jouent tous un rôle important dans la conception de la couleur des yeux.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rochromie</t>
+          <t>Hétérochromie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,11 +566,13 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les causes et les origines de cette caractéristique ne sont pas bien connues ni définies. Si de nombreuses causes ont été avancées, le consensus scientifique généralement accepté est que le manque de diversité génétique soit la principale raison de l'apparition de l'hétérochromie, du moins chez les animaux domestiques, en raison de la consanguinité dont font preuve certaines races créées et élevées par l'homme.
 Elle est en effet due à une mutation des gènes, qui déterminent la distribution de la mélanine au niveau de la voie 8-HTP, qui ne sont généralement corrompus qu'en raison de l'homogénéité chromosomique.
-L'hétérochromie est moins courante voire rare chez l'homme, affectant par exemple environ moins de 200 000 personnes aux États-Unis et n'est pas mise en relation à une diversité génétique faible ou consanguine[5].
+L'hétérochromie est moins courante voire rare chez l'homme, affectant par exemple environ moins de 200 000 personnes aux États-Unis et n'est pas mise en relation à une diversité génétique faible ou consanguine.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rochromie</t>
+          <t>Hétérochromie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,11 +601,13 @@
           <t>Hétérochromie et santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des cas d'hétérochromie sont héréditaires ou causés par des facteurs génétiques tels que le chimérisme ou d’autres mutations génétiques soudaines non-héritées d'un des deux parents ou d'un proche possédant cette caractéristique dans la lignée de la personne ou de l'animal concerné par le phénomène, et sont entièrement bénins et sans lien avec aucune pathologie. Même lorsqu’elle résulte de certaines maladies ou  syndromes, la couleur anormale des deux yeux, quelle qu'elle soit, n'affecte pas la vue des individus touchés. De fait, être atteint d'hétérochromie ou avoir les yeux vairons n'est pas un handicap car cela n'engendre aucune gêne ni aucun réel problème de vision ni de perception.
 L'hétérochromie est une caractéristique de naissance qui reste à vie, bien que des traitements sous la forme de chirurgie avec implantation d'iris existent pour remédier à cela. Ces pratiques sont cependant controversées car souvent destinées et réalisées plus à des fins esthétiques que fonctionnelles et médicales.
-Contrairement à une croyance répandue, les yeux clairs comme ceux de couleur bleue ne sont pas plus affectés ou sensibles que ceux de couleur foncée comme les yeux verts (qui seraient neutres) ou marron (qui seraient plus résistants). Les yeux, peu importe leur couleur, sont normalement tous aussi résistants aux rayons lumineux. La couleur des yeux est déterminée par la première couche de l'iris, mais la réceptivité de l’œil à la lumière se fait dans la seconde couche de l’iris ; c’est cette dernière qui peut être abîmée par divers facteurs, entrainant ainsi une sensibilité accrue à la lumière[6]. Une personne atteinte d'hétérochromie possédant un œil clair et un œil foncé ne sera donc, sauf si la seconde couche de l'iris est abîmée, pas plus sensible à la lumière par son œil clair qu'avec son œil foncé[réf. nécessaire].
+Contrairement à une croyance répandue, les yeux clairs comme ceux de couleur bleue ne sont pas plus affectés ou sensibles que ceux de couleur foncée comme les yeux verts (qui seraient neutres) ou marron (qui seraient plus résistants). Les yeux, peu importe leur couleur, sont normalement tous aussi résistants aux rayons lumineux. La couleur des yeux est déterminée par la première couche de l'iris, mais la réceptivité de l’œil à la lumière se fait dans la seconde couche de l’iris ; c’est cette dernière qui peut être abîmée par divers facteurs, entrainant ainsi une sensibilité accrue à la lumière. Une personne atteinte d'hétérochromie possédant un œil clair et un œil foncé ne sera donc, sauf si la seconde couche de l'iris est abîmée, pas plus sensible à la lumière par son œil clair qu'avec son œil foncé[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rochromie</t>
+          <t>Hétérochromie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,10 +636,12 @@
           <t>Espèces concernées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette caractéristique n'est pas propre à l'être humain et au contraire s'observe plus fréquemment chez les animaux, notamment le chat ou le chien (ceux à marquage facial tel le Husky), mais aussi le rat domestique et le poisson rouge (principalement les formes comètes bicolores).
-Cette spécificité s'observe très fréquemment chez les chats de race Bobtail japonais, Angora turc ou encore Turc de van. Parmi les chiens, dont certaines races sont connues pour avoir une incidence assez prononcée du phénomène, l'hétérochromie est surtout constatée chez les Husky (particulièrement chez les croisements de husky) aux iris habituellement clairs, et d'Alaskan Malamute aux iris généralement sombres. Le mini Aussie (mini berger australien) est également fréquemment concerné. On le rencontre aussi chez le cheval, notamment chez le Paint-horse[7]. Le phénomène a aussi été répertorié chez certains bovins[8].
+Cette spécificité s'observe très fréquemment chez les chats de race Bobtail japonais, Angora turc ou encore Turc de van. Parmi les chiens, dont certaines races sont connues pour avoir une incidence assez prononcée du phénomène, l'hétérochromie est surtout constatée chez les Husky (particulièrement chez les croisements de husky) aux iris habituellement clairs, et d'Alaskan Malamute aux iris généralement sombres. Le mini Aussie (mini berger australien) est également fréquemment concerné. On le rencontre aussi chez le cheval, notamment chez le Paint-horse. Le phénomène a aussi été répertorié chez certains bovins.
 Si l'hétérochromie peut être de temps en temps observée chez des animaux sauvages, elle s'observe le plus couramment chez les animaux domestiques, en raison de certaines sélections des éleveurs à la création ou l'amélioration de certaines races animales qui ont souvent favorisé et augmenté le taux d'apparition de ce trait volontairement ou non.
 </t>
         </is>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rochromie</t>
+          <t>Hétérochromie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,19 +673,59 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Personnes célèbres
-Les actrices Elizabeth Berkley, Mila Kunis, Kate Bosworth, Daniela Ruah, Jane Seymour et Alice Eve ont les yeux vairons. Les acteurs Dan Aykroyd et Josh Henderson ont également les yeux vairons. Le chanteur français Gérard Palaprat, Anouchka Delon, ainsi que le chanteur Tim McIlrath du groupe Rise Against ont également les yeux vairons.
-Ce trait fut souvent donné à David Bowie, à tort : s'il semblait avoir un œil noir et un œil bleu, c'est que son œil gauche avait subi une paralysie à la suite d'une blessure, et était en mydriase permanente (caractéristique incluse dans le terme de l'anisocorie et à ne pas confondre avec le myosis). Cette blessure à l'œil, donnant l'impression d'un œil gauche de couleur noire due à l'augmentation de la pupille de ce dernier, aurait été causée par un coup de poing donné par un camarade de classe lorsqu'il était jeune[9].
-L'actrice française France Zobda détient le record mondial des nuances, avec sept à gauche et quatre à droite[10].
+          <t>Personnes célèbres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les actrices Elizabeth Berkley, Mila Kunis, Kate Bosworth, Daniela Ruah, Jane Seymour et Alice Eve ont les yeux vairons. Les acteurs Dan Aykroyd et Josh Henderson ont également les yeux vairons. Le chanteur français Gérard Palaprat, Anouchka Delon, ainsi que le chanteur Tim McIlrath du groupe Rise Against ont également les yeux vairons.
+Ce trait fut souvent donné à David Bowie, à tort : s'il semblait avoir un œil noir et un œil bleu, c'est que son œil gauche avait subi une paralysie à la suite d'une blessure, et était en mydriase permanente (caractéristique incluse dans le terme de l'anisocorie et à ne pas confondre avec le myosis). Cette blessure à l'œil, donnant l'impression d'un œil gauche de couleur noire due à l'augmentation de la pupille de ce dernier, aurait été causée par un coup de poing donné par un camarade de classe lorsqu'il était jeune.
+L'actrice française France Zobda détient le record mondial des nuances, avec sept à gauche et quatre à droite.
 Le joueur de baseball Max Scherzer est également hétérochrome : son œil droit est bleu tandis que son œil gauche est brun[réf. souhaitée].
-Deux jumelles afro-américaines nées en 2011 à Philadelphie sont très présentes sur les réseaux sociaux. Megan et Morgan Boyd sont monozygotes, et se distinguent par la couleur de leurs yeux : ceux de Megan sont bleus alors que Morgan a l'œil droit brun foncé et le gauche bleu clair[11].
-L'acteur Henry Cavill, ayant joué le rôle de Superman dans Man of Steel ou celui de Geralt de Riv dans la série The Witcher possède une hétérochromie partielle : ses deux yeux sont bleus et il possède une petite tache marron au-dessus de sa pupille gauche[12].
+Deux jumelles afro-américaines nées en 2011 à Philadelphie sont très présentes sur les réseaux sociaux. Megan et Morgan Boyd sont monozygotes, et se distinguent par la couleur de leurs yeux : ceux de Megan sont bleus alors que Morgan a l'œil droit brun foncé et le gauche bleu clair.
+L'acteur Henry Cavill, ayant joué le rôle de Superman dans Man of Steel ou celui de Geralt de Riv dans la série The Witcher possède une hétérochromie partielle : ses deux yeux sont bleus et il possède une petite tache marron au-dessus de sa pupille gauche.
 L'acteur et mannequin britannique Dominic Sherwood, connu pour avoir joué le rôle de Christian Ozéra dans Vampire Academy ou celui de Jace Herondale dans la série Shadowhunters possède une hétérochromie partielle : ses yeux sont bleus mais il possède une petite tache marron en dessous de sa pupille gauche.
 L'actrice du muet Colleen Moore était affectée d'une hétérochromie - un œil marron et un œil bleu. D. W. Griffith lui fit passer un bout d'essai en 1916, dans les Studios d'Essanay dans la banlieue de Chicago, pour s'assurer que les yeux ne ressortent pas en blanc sous l'effet de la lumière des projecteurs, sur la pellicule dont la constitution chimique restait fragile à cette époque. Et pour que le test soit exhaustif, elle s'est mise à pleurer[réf. souhaitée]. Les tests pellicule furent concluants.
 Selon la version latine du Roman d'Alexandre, Alexandre le Grand aurait été atteint d'hétérochromie (on lui prête d'ailleurs le surnom de Dikoros, « deux couleurs » en grec ancien). Son œil droit aurait été de couleur brune et son œil gauche de couleur bleue, mais d'autres sources indiquent que son œil droit était noir et son œil gauche bleu-vert[réf. souhaitée].
 Sur le portrait de Dora Maar réalisé par Pablo Picasso en 1937, la muse du peintre apparaît hétérochrome, comme pour montrer la dualité dans sa personnalité. Picasso la dote d'un œil droit rouge et d'un œil gauche vert.
-Roman
-Dans L'Homme qui rit de Victor Hugo, la duchesse Josiane a les yeux vairons. L'un est bleu, l'autre est noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hétérochromie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9t%C3%A9rochromie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans L'Homme qui rit de Victor Hugo, la duchesse Josiane a les yeux vairons. L'un est bleu, l'autre est noir.
 Dans Un bonheur insoutenable d'Ira Levin, le personnage principal, Li RM35M4419 dit Copeau, a les yeux vairons.
 Selon le Roman d'Alexandre du Pseudo-Callisthène, Alexandre le Grand avait « les yeux vairons, le droit noir et le gauche bleu-vert ».
 Woland, le diable de Mikhaïl Boulgakov dans Le Maître et Marguerite a également les yeux vairons.
@@ -675,9 +735,43 @@
 Gaëlle, l'un des personnages secondaires des romans la Passe-Miroir de Christelle Dabos, a les yeux vairons : l'un d'un bleu électrique, l'autre d'un noir de jais.
 Dans la série Fortune de France de Robert Merle, le valet s'appelle Miroul et a les yeux vairons, un œil bleu, un œil marron.
 Dans la série Thomas Passe-Mondes, tous les personnages ayant des capacités de passe-monde, tel que le héros Thomas, ont les yeux vairons.
-Dans ATGK Tome 1 : L'entreprise de défense d'Antonin Starita, le personnage de Léon Patron a les yeux vairons. Celui de gauche est marron et celui de droite est un mélange de bleu et de vert.
-Jeux vidéo
-Kazuya Mishima, personnage emblématique de la saga Tekken, tenant des yeux vairons de couleur rouge à sa gauche et noisette de l'autre.
+Dans ATGK Tome 1 : L'entreprise de défense d'Antonin Starita, le personnage de Léon Patron a les yeux vairons. Celui de gauche est marron et celui de droite est un mélange de bleu et de vert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hétérochromie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9t%C3%A9rochromie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kazuya Mishima, personnage emblématique de la saga Tekken, tenant des yeux vairons de couleur rouge à sa gauche et noisette de l'autre.
 Vladimir Makarov, le principal antagoniste dans les jeux vidéo Call of Duty: Modern Warfare 2 et Call of Duty: Modern Warfare 3 a un œil bleu et un œil vert.
 Yuna, l'un des principaux personnages de Final Fantasy X, ainsi que le personnage principal de Final Fantasy X-2, a un œil vert et un œil bleu.
 "Le sage" dans "Assassin's Creed IV Black Flag" a un œil jaune et l'autre bleu .
@@ -699,11 +793,79 @@
 Lysandre, un personnage du jeu Amour sucré a les yeux vairons. Il possède un œil jaune/doré et un œil bleu/vert.
 Yozora, un personnage du jeu vidéo Kingdom hearts III a un œil bleu à droite et un œil rouge à gauche.
 Dans Animal Crossing: New Horizons, Raymond a un œil marron à droite et un œil vert à gauche.
-Kagehira Mika du jeu mobile Ensemble Stars! a un œil bleu et un œil jaune.
-Séries et dessin animés
-Neopolitan, dit Neo (de son vrai nom Trivia Vanille), de la série web américaine RWBY, a l'œil gauche brun foncé et l'œil droit rose pâle, avec la pupille des deux yeux noire. Il s'agit aussi là de la nature normale de base de ses yeux car tout au long de la série, la couleur de ses yeux change et alterne entre le brun, le rose et le blanc avec différentes combinaisons, pouvoir et aptitude que Neo contrôle parfaitement selon sa propre volonté dès qu'elle le veut. Ses yeux changent aussi lorsqu'elle utilise sa compétence d'illusion et de camouflage pour prendre l'apparence des autres.
-Bandes dessinées et mangas
-Dartz, chef de l'association Doma et antagoniste de la quatrième saison de Yu-Gi-Oh, obtient son regard vairon, à l'issue de son premier contact avec l'Orichalque.
+Kagehira Mika du jeu mobile Ensemble Stars! a un œil bleu et un œil jaune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hétérochromie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9t%C3%A9rochromie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Séries et dessin animés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Neopolitan, dit Neo (de son vrai nom Trivia Vanille), de la série web américaine RWBY, a l'œil gauche brun foncé et l'œil droit rose pâle, avec la pupille des deux yeux noire. Il s'agit aussi là de la nature normale de base de ses yeux car tout au long de la série, la couleur de ses yeux change et alterne entre le brun, le rose et le blanc avec différentes combinaisons, pouvoir et aptitude que Neo contrôle parfaitement selon sa propre volonté dès qu'elle le veut. Ses yeux changent aussi lorsqu'elle utilise sa compétence d'illusion et de camouflage pour prendre l'apparence des autres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hétérochromie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9t%C3%A9rochromie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bandes dessinées et mangas</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dartz, chef de l'association Doma et antagoniste de la quatrième saison de Yu-Gi-Oh, obtient son regard vairon, à l'issue de son premier contact avec l'Orichalque.
 Rokudo Mukuro, un personnage du manga Reborn!, a un œil bleu et un œil rouge.
 Dans Kuroko no Basket, le personnage Akashi Seijuro possède un œil rouge et l'autre jaune, puis ils redeviendront tous deux  rouges a la fin du manga .
 Rohan Kishibe du manga Jojo's Bizarre Adventure a l'œil droit de couleur dorée tandis que l'autre est bleu. Cependant, ces couleurs ne sont pas gardées dans l'anime
